--- a/output/fit_clients/fit_round_28.xlsx
+++ b/output/fit_clients/fit_round_28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>9966235580.840878</v>
+        <v>8130488655.10288</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1248425486140297</v>
+        <v>0.1536745308925334</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07150462942197917</v>
+        <v>0.2149123705669506</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1818831396257255</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.61831619801853</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7512551607070117</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.406787016121704</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>7386607751.553853</v>
+        <v>11110420762.87319</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1968104302944996</v>
+        <v>0.1416916085897086</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3202234374781949</v>
+        <v>0.1821505400539278</v>
       </c>
       <c r="I3" t="n">
-        <v>2.067826062545276</v>
+        <v>11</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9871822889695424</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5184292973302641</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.040627017099118</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8807159694218147</v>
+      </c>
+      <c r="N3" t="n">
+        <v>14.57369237133717</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>6308114318.862878</v>
+        <v>12187303739.49271</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2354418539243794</v>
+        <v>0.1074638843828893</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4537324614258303</v>
+        <v>0.08857045408057948</v>
       </c>
       <c r="I4" t="n">
-        <v>2.112535815248958</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.494185664542956</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7629166634158502</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.764147603774047</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>6475699506.27784</v>
+        <v>10549365572.14472</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2240903949593702</v>
+        <v>0.1020506193133214</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4145021648330892</v>
+        <v>0.07377035204791896</v>
       </c>
       <c r="I5" t="n">
-        <v>2.064100249819969</v>
+        <v>13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9866189844527031</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1108747270604266</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.430959186956715</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6611500460011457</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10.7920417330662</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>5596723793.183026</v>
+        <v>6786159581.503572</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2185662854204027</v>
+        <v>0.1983988799305089</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.395411010445578</v>
+        <v>0.3371906851515335</v>
       </c>
       <c r="I6" t="n">
-        <v>1.739954542718277</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.570294299851014</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7698161560131427</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.826028820411839</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>7000337033.01716</v>
+        <v>9354170539.192751</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1680070694386404</v>
+        <v>0.171374540723131</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2206798992663921</v>
+        <v>0.2633049669215288</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1318946653238111</v>
+        <v>14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3927528687266489</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.628442195369062</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.3817286947674788</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.006131699980513</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>9416028660.685007</v>
+        <v>9326509074.165279</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1624595479819529</v>
+        <v>0.1291929692469462</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2015078340040068</v>
+        <v>0.1479787167337975</v>
       </c>
       <c r="I8" t="n">
-        <v>2.175874631579173</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8.474519288390768</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.742356283835691</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.372606388323051</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>10282890825.87204</v>
+        <v>8982273229.274668</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1131013816731222</v>
+        <v>0.1484334172394869</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03092751392902664</v>
+        <v>0.2005829379910486</v>
       </c>
       <c r="I9" t="n">
-        <v>1.654260850036221</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8.779734509704912</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7673686487660272</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.56763846561563</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>9200787417.511597</v>
+        <v>8623602635.486042</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1574346416528511</v>
+        <v>0.1585557263936866</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1841419107117628</v>
+        <v>0.2282577712687488</v>
       </c>
       <c r="I10" t="n">
-        <v>2.060374437094662</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.453473451134737</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7736948123200486</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.020422795266233</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>5583111890.771247</v>
+        <v>12424922453.48945</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1928260280399438</v>
+        <v>0.1220632817369469</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3064534645898787</v>
+        <v>0.1284858411304606</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1243824064374171</v>
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3676851037768942</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.156079598297976</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.6074056871229224</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8.992034144160474</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>5872955362.027905</v>
+        <v>6261439511.538723</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2158682778685788</v>
+        <v>0.2033116406625095</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3860867784861651</v>
+        <v>0.3506223865667129</v>
       </c>
       <c r="I12" t="n">
-        <v>1.803293359048493</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.525947287018694</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7558684262809108</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.591421238599521</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>5029891943.500658</v>
+        <v>14344609494.94813</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2463216872085948</v>
+        <v>0.09988465217576013</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4913328340241908</v>
+        <v>0.06784850373210105</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1436035277450192</v>
+        <v>9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.985829559122409</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2492774227933591</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.03767191731444</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8709003487943928</v>
+      </c>
+      <c r="N13" t="n">
+        <v>14.38033505857342</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>7874916074.279079</v>
+        <v>6358123969.500214</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1759583590390012</v>
+        <v>0.2533648066202503</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2481593140516156</v>
+        <v>0.4874699182711568</v>
       </c>
       <c r="I14" t="n">
-        <v>1.970954931687299</v>
+        <v>13</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9879696107064661</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3623584083050125</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.682442868201301</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.8616082442873194</v>
+      </c>
+      <c r="N14" t="n">
+        <v>14.54972201754509</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>5673077812.826191</v>
+        <v>3658318324.600046</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2590265528665368</v>
+        <v>0.2685034933660096</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5352404629438174</v>
+        <v>0.5288597459626366</v>
       </c>
       <c r="I15" t="n">
-        <v>2.090180938897117</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6.02092207701146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6673072106264324</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.325222135517188</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>9343066413.633751</v>
+        <v>9571554818.814171</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1673728689028775</v>
+        <v>0.1392949771733303</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2184881215227606</v>
+        <v>0.1755980455720884</v>
       </c>
       <c r="I16" t="n">
-        <v>2.224310197008162</v>
+        <v>7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.9843128304105799</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.461825100196431</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.623567267186904</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8725178894378048</v>
+      </c>
+      <c r="N16" t="n">
+        <v>13.82679052156919</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>10863034764.61295</v>
+        <v>8646115770.429628</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1068200364947783</v>
+        <v>0.1660197200816192</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.009219376225547223</v>
+        <v>0.2486646544959455</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1431217277108605</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.775220201964645</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7859970524950766</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.944720847936887</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>8662230389.102219</v>
+        <v>3890535015.943698</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1409147165533322</v>
+        <v>0.2821011520272313</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.127049552509905</v>
+        <v>0.5660363358774242</v>
       </c>
       <c r="I18" t="n">
-        <v>1.73622872999297</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8.525981473313051</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7198039886219385</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.87009829912572</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>4574556545.738592</v>
+        <v>8196094038.215628</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2874450816932017</v>
+        <v>0.1597950186873568</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.633454033378772</v>
+        <v>0.2316460502757608</v>
       </c>
       <c r="I19" t="n">
-        <v>1.870357988104015</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8.866421118482917</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7629166634158502</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.391912149834086</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>5341883366.787728</v>
+        <v>12083723060.83119</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2868544752450211</v>
+        <v>0.1224751132204614</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6314129154746215</v>
+        <v>0.1296118063100603</v>
       </c>
       <c r="I20" t="n">
-        <v>2.17960044430448</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>9.111075849120503</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7938040943965975</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.765006038811446</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>9858899126.306795</v>
+        <v>5542316080.396411</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.143471454761691</v>
+        <v>0.1781764186082597</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1358855619191876</v>
+        <v>0.2819015967595052</v>
       </c>
       <c r="I21" t="n">
-        <v>2.011938871665674</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.28727727125269</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.4737052414804687</v>
+      </c>
+      <c r="N21" t="n">
+        <v>6.186827558356684</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>9481755610.167007</v>
+        <v>13882411624.981</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1513881794697213</v>
+        <v>0.1139651814640791</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1632455214888306</v>
+        <v>0.1063452829333491</v>
       </c>
       <c r="I22" t="n">
-        <v>2.041745373468129</v>
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3456865389672782</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.990989824295433</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.5939645996161709</v>
+      </c>
+      <c r="N22" t="n">
+        <v>8.888302168027984</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>3984191722.594034</v>
+        <v>10776456226.80295</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3142590786732525</v>
+        <v>0.1307695025471352</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7261223906011167</v>
+        <v>0.1522890273136093</v>
       </c>
       <c r="I23" t="n">
-        <v>1.780938482696652</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8.837088833731338</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7813188232791015</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6.789287631850693</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>8249717067.741288</v>
+        <v>13418362499.40218</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.166694171291927</v>
+        <v>0.1110741277161354</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.216142563241975</v>
+        <v>0.09844101630284272</v>
       </c>
       <c r="I24" t="n">
-        <v>1.956051680786072</v>
+        <v>10</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9883392308890679</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3544540643084501</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.999757349636605</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.8730090442306618</v>
+      </c>
+      <c r="N24" t="n">
+        <v>14.46042353497663</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>7278806266.670834</v>
+        <v>11904009126.34227</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1817319903205799</v>
+        <v>0.1084810383035042</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2681128079850076</v>
+        <v>0.09135139711857163</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1480700633058541</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8.698015109167137</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7594116244411049</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.490217379654961</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>6095054161.957343</v>
+        <v>3794230508.942131</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1796382757078546</v>
+        <v>0.4080035428399985</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2608769940256782</v>
+        <v>0.9102589457511332</v>
       </c>
       <c r="I26" t="n">
-        <v>1.557389719178244</v>
+        <v>15</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3282422968227051</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.488123384810024</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.2773020201150777</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-8.034163787111579</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>10506707931.59259</v>
+        <v>4825016185.684051</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1393623025912031</v>
+        <v>0.3186687610628221</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1216844571193683</v>
+        <v>0.6660137686951342</v>
       </c>
       <c r="I27" t="n">
-        <v>2.082729313446503</v>
+        <v>15</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9880238807693636</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3305640049693212</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.49044509295664</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8065657828569643</v>
+      </c>
+      <c r="N27" t="n">
+        <v>13.64087056418265</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>10222395156.01016</v>
+        <v>8087168344.234809</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1127457491527687</v>
+        <v>0.1872110676513007</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02969845876576559</v>
+        <v>0.3066027200091299</v>
       </c>
       <c r="I28" t="n">
-        <v>1.639357599134994</v>
+        <v>10</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.9849656667544089</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.3638782623063573</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.009181547634512</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8780263354682832</v>
+      </c>
+      <c r="N28" t="n">
+        <v>14.55134516173115</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>9050926091.552378</v>
+        <v>6638118238.384187</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1507803926576901</v>
+        <v>0.2438617333809401</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1611450287702612</v>
+        <v>0.4614881029049892</v>
       </c>
       <c r="I29" t="n">
-        <v>1.941148429884845</v>
+        <v>11</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3039302971158022</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.826128016884656</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.5691533430688245</v>
+      </c>
+      <c r="N29" t="n">
+        <v>8.556938844491834</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>8454434853.358647</v>
+        <v>4718468143.360125</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1821767328880809</v>
+        <v>0.2647997172044569</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2696498247582932</v>
+        <v>0.518733460921603</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1312702340031711</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8.454100332695372</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7512551607070117</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.571002881444862</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>9146707235.844213</v>
+        <v>7765744740.92828</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.160942855395123</v>
+        <v>0.126487707588826</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1962661905989818</v>
+        <v>0.1405824137538625</v>
       </c>
       <c r="I31" t="n">
-        <v>2.093906751622423</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.448592439859959</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.605917611380551</v>
+      </c>
+      <c r="N31" t="n">
+        <v>7.669759787751061</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>3971692784.92448</v>
+        <v>12664732901.55108</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2954626109185112</v>
+        <v>0.0821097324423353</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6611623702911813</v>
+        <v>0.01925110044661286</v>
       </c>
       <c r="I32" t="n">
-        <v>1.669164100937448</v>
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1469596024844155</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.104498586033053</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.4400348041069532</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5.696197496106011</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>6299849406.999295</v>
+        <v>4855801242.739046</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1742143881694413</v>
+        <v>0.2799668565579834</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2421322038208665</v>
+        <v>0.5602010792796467</v>
       </c>
       <c r="I33" t="n">
-        <v>1.561115531903551</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8.563276416051599</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7722456400130743</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6.881636384209887</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>6486199854.8735</v>
+        <v>11285920252.82267</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2168623325633609</v>
+        <v>0.09840769162995174</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3895222012477602</v>
+        <v>0.06381042939152141</v>
       </c>
       <c r="I34" t="n">
-        <v>2.000761433489754</v>
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3228009004294777</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.737872757010714</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.5771608748320384</v>
+      </c>
+      <c r="N34" t="n">
+        <v>7.805344739630054</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>8825645457.490488</v>
+        <v>12936803372.78272</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1406798931568499</v>
+        <v>0.1237127321087004</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1262380100007605</v>
+        <v>0.1329955101538751</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1613204798275121</v>
+        <v>11</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9880031486679368</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4376029158468882</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.959800635615742</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8880358708461682</v>
+      </c>
+      <c r="N35" t="n">
+        <v>14.80091678130762</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>10119695856.88315</v>
+        <v>8854927312.963778</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1527160620097918</v>
+        <v>0.136960759488615</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.167834643120496</v>
+        <v>0.1692161929459459</v>
       </c>
       <c r="I36" t="n">
-        <v>2.198229507931014</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8.509926453642537</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7439447838903801</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.368969224165065</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>5563935558.770489</v>
+        <v>8253017278.822042</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2160880544536146</v>
+        <v>0.1199718098907606</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3868463196730442</v>
+        <v>0.1227676661798176</v>
       </c>
       <c r="I37" t="n">
-        <v>1.710148040915823</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.677033465157348</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.5286484702498295</v>
+      </c>
+      <c r="N37" t="n">
+        <v>6.895935939839243</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>7816500718.879683</v>
+        <v>4599443132.669418</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1370601178878355</v>
+        <v>0.2739302462619568</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1137281768735619</v>
+        <v>0.5436967242989783</v>
       </c>
       <c r="I38" t="n">
-        <v>1.523857404650483</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8.550446732833771</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7533136416956505</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.51582610107924</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>9997399874.544865</v>
+        <v>3973063041.507767</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1165931706870998</v>
+        <v>0.3777716221261892</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04299503045530496</v>
+        <v>0.8276035602384127</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1545113425607795</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>9.244789064251856</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.7974168046575646</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6.703547028899436</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>10224182462.18514</v>
+        <v>8486211989.890667</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1362960300399582</v>
+        <v>0.1639007005312767</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1110875125336271</v>
+        <v>0.2428711629245501</v>
       </c>
       <c r="I40" t="n">
-        <v>1.982132369863219</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.766141360572433</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7780047569673826</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6.793953778775219</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>10597789624.08578</v>
+        <v>4433266475.263388</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1208631002722415</v>
+        <v>0.2647002445144652</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.05775177710536798</v>
+        <v>0.5184614982627601</v>
       </c>
       <c r="I41" t="n">
-        <v>1.821922422675027</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8.615771601386861</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7359215851289607</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.102660101192352</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>7229776389.146437</v>
+        <v>10237225745.7441</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1684722022424544</v>
+        <v>0.1105354622535728</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.2222873840756031</v>
+        <v>0.09696828151063465</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1603731375192081</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.567153677863987</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7271323075753511</v>
+      </c>
+      <c r="N42" t="n">
+        <v>5.975492473643035</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>5969452816.580534</v>
+        <v>8415322124.077297</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2136951189993195</v>
+        <v>0.1176579345866173</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3785764075949004</v>
+        <v>0.1164414305065094</v>
       </c>
       <c r="I43" t="n">
-        <v>1.814470797224413</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.957256795746576</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.640589379248073</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7.854530789214885</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>9356502230.22142</v>
+        <v>15667093958.39443</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1609735361506302</v>
+        <v>0.09847523185200258</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1963722223559524</v>
+        <v>0.06399508729480433</v>
       </c>
       <c r="I44" t="n">
-        <v>2.142342317051412</v>
+        <v>19</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9893152423629732</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.3414163942487899</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.260521102092354</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.7300791939352028</v>
+      </c>
+      <c r="N44" t="n">
+        <v>12.3410627766117</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>7782038350.970308</v>
+        <v>6867966895.99721</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2012834105096248</v>
+        <v>0.1434035217283901</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.3356819209236911</v>
+        <v>0.1868309849975857</v>
       </c>
       <c r="I45" t="n">
-        <v>2.228036009733469</v>
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2340962035540965</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.416687945335718</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6067688188514559</v>
+      </c>
+      <c r="N45" t="n">
+        <v>7.7186884316934</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>5387625592.848002</v>
+        <v>9260422137.741964</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1993364018141226</v>
+        <v>0.1680180057514517</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3289531181478856</v>
+        <v>0.2541280543893273</v>
       </c>
       <c r="I46" t="n">
-        <v>1.52758321737579</v>
+        <v>10</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.9863206517174405</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.3462194776957287</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.991522763023883</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.889730038814486</v>
+      </c>
+      <c r="N46" t="n">
+        <v>14.80307801326584</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>5772761443.843477</v>
+        <v>9224492325.103746</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2155312084352494</v>
+        <v>0.1189793835063608</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3849218767865139</v>
+        <v>0.1200543293008249</v>
       </c>
       <c r="I47" t="n">
-        <v>1.769761044520732</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8.613487905134903</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7198039886219385</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5.782591867303868</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>5118403155.211443</v>
+        <v>14041481624.59285</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2993791429734883</v>
+        <v>0.1087566405617313</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.6746977858360327</v>
+        <v>0.09210490567390239</v>
       </c>
       <c r="I48" t="n">
-        <v>2.17960044430448</v>
+        <v>10</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2313784852476292</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2.876681770575784</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.5744724549347177</v>
+      </c>
+      <c r="N48" t="n">
+        <v>8.612767328118569</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>10520407033.48566</v>
+        <v>7556155120.230903</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1095519970217482</v>
+        <v>0.1494089351047496</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.01866094863338131</v>
+        <v>0.2032500462436514</v>
       </c>
       <c r="I49" t="n">
-        <v>1.639357599134994</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>8.704394892326379</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7265746905949589</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5.8270989195728</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>8465586457.489937</v>
+        <v>10364496958.19252</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1636811952672267</v>
+        <v>0.1316708563382118</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2057298098293818</v>
+        <v>0.1547533677632305</v>
       </c>
       <c r="I50" t="n">
-        <v>1.970954931687299</v>
+        <v>10</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.2725425206533321</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2.917845805981487</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.5054471868143344</v>
+      </c>
+      <c r="N50" t="n">
+        <v>7.191097930305202</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>9898820440.634314</v>
+        <v>14113391536.23568</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1262220117531433</v>
+        <v>0.09539637985265609</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.07627201203358845</v>
+        <v>0.05557737208075404</v>
       </c>
       <c r="I51" t="n">
-        <v>1.777212669971345</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8.472195714493537</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7698161560131427</v>
+      </c>
+      <c r="N51" t="n">
+        <v>6.924127405769315</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>4793786602.056197</v>
+        <v>5471176013.702579</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2923312542529343</v>
+        <v>0.204910044420469</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.6503404969877666</v>
+        <v>0.35499249192885</v>
       </c>
       <c r="I52" t="n">
-        <v>1.99330980803914</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.448201255398804</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.7013159001423719</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.578116747448633</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>8911037081.022713</v>
+        <v>6920176860.639288</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1337467725881369</v>
+        <v>0.199855863202929</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1022773563911892</v>
+        <v>0.3411741407581915</v>
       </c>
       <c r="I53" t="n">
-        <v>1.695244790014596</v>
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.9834359605882669</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2426299506030334</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3.200168934151671</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8710688117346742</v>
+      </c>
+      <c r="N53" t="n">
+        <v>14.22120730054181</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>4443992761.345469</v>
+        <v>11772041423.36424</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3259507266977283</v>
+        <v>0.1352857217134109</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.7665283702264636</v>
+        <v>0.1646365668491287</v>
       </c>
       <c r="I54" t="n">
-        <v>2.060374437094662</v>
+        <v>13</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.9887623819268805</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.3150042204766343</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2.635088680372923</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.8567515165703434</v>
+      </c>
+      <c r="N54" t="n">
+        <v>14.49994165103394</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>6754407907.516046</v>
+        <v>4935937962.713896</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2198851698529094</v>
+        <v>0.2679920128640956</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3999690348914468</v>
+        <v>0.5274613360346615</v>
       </c>
       <c r="I55" t="n">
-        <v>2.112535815248958</v>
+        <v>8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3004780897265284</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.258017073275166</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.5772564889289904</v>
+      </c>
+      <c r="N55" t="n">
+        <v>8.287112705304642</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>9034132603.511593</v>
+        <v>12745871174.56954</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1699070190095899</v>
+        <v>0.09823325552655174</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2272460671404384</v>
+        <v>0.06333351350151388</v>
       </c>
       <c r="I56" t="n">
-        <v>2.183326257029787</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>8.635795817695971</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7517710146847254</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.399624475998536</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>10487381479.43305</v>
+        <v>7058195635.122987</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1041523694110009</v>
+        <v>0.1395385861931891</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>0.1762640832228687</v>
       </c>
       <c r="I57" t="n">
-        <v>1.553663906452937</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6.158824676592818</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6679870959934546</v>
+      </c>
+      <c r="N57" t="n">
+        <v>7.200917243276274</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>9058334171.676283</v>
+        <v>5576379595.68149</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1257885421761983</v>
+        <v>0.2902928310787222</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.07477395437246274</v>
+        <v>0.588432742523469</v>
       </c>
       <c r="I58" t="n">
-        <v>1.62072853550846</v>
+        <v>12</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.4643160932080178</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2.879136561235943</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.5254617457617274</v>
+      </c>
+      <c r="N58" t="n">
+        <v>7.630098353998606</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>11890268103.61213</v>
+        <v>11188400315.78372</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1145544228381372</v>
+        <v>0.1411722967913273</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.03594917995809954</v>
+        <v>0.1807307190209592</v>
       </c>
       <c r="I59" t="n">
-        <v>1.937422617159538</v>
+        <v>11</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.3582604734970845</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2.880458193265938</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.5538806755246227</v>
+      </c>
+      <c r="N59" t="n">
+        <v>8.197155317226517</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>7774847372.631639</v>
+        <v>8414704213.922215</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1974267103175872</v>
+        <v>0.1207794468067555</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.3223532824756029</v>
+        <v>0.1249757806187847</v>
       </c>
       <c r="I60" t="n">
-        <v>2.183326257029787</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>8.406577235358078</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.7015885030725069</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.625192826092059</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>10010005146.72159</v>
+        <v>4309157892.163003</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1057175840060967</v>
+        <v>0.2328126272245795</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.005409333988359865</v>
+        <v>0.4312793663324632</v>
       </c>
       <c r="I61" t="n">
-        <v>1.505228341023949</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>8.444924815765345</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.6985451275067568</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.525977734369791</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>8974593257.785831</v>
+        <v>7778328507.24472</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1678236781029996</v>
+        <v>0.1959913339453454</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2200461043936885</v>
+        <v>0.3306083497641429</v>
       </c>
       <c r="I62" t="n">
-        <v>2.142342317051412</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>9.077912258440096</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.8014359778348327</v>
+      </c>
+      <c r="N62" t="n">
+        <v>6.950807298256558</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>4265550776.264276</v>
+        <v>11428145685.303</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3444989561903546</v>
+        <v>0.136606277430266</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.8306304866600376</v>
+        <v>0.1682470235879172</v>
       </c>
       <c r="I63" t="n">
-        <v>2.090180938897117</v>
+        <v>10</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.9878525410879965</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.5471828667754669</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3.192486152103621</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8917325551347347</v>
+      </c>
+      <c r="N63" t="n">
+        <v>14.64216495059107</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>8396608360.81319</v>
+        <v>11653622074.16287</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1628421287791942</v>
+        <v>0.1069907391938111</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.2028300215917632</v>
+        <v>0.08727685456445983</v>
       </c>
       <c r="I64" t="n">
-        <v>1.944874242610152</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8.749944429099836</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7507384789024347</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.264825148948859</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>9192143648.559656</v>
+        <v>4461037713.302953</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1313663968022533</v>
+        <v>0.2248863234238858</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.09405085014470189</v>
+        <v>0.4096085071588342</v>
       </c>
       <c r="I65" t="n">
-        <v>1.717599666366436</v>
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0515238373986573</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.881164773454508</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.6443080732113849</v>
+      </c>
+      <c r="N65" t="n">
+        <v>8.004996690773192</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>5757886839.604435</v>
+        <v>8994898367.116657</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2138133892337101</v>
+        <v>0.1354119079825066</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.3789851459242675</v>
+        <v>0.1649815655945693</v>
       </c>
       <c r="I66" t="n">
-        <v>1.751131980894198</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>8.925707419715598</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7449994030383094</v>
+      </c>
+      <c r="N66" t="n">
+        <v>5.974280641050589</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>5849663235.031089</v>
+        <v>10786652639.67032</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2055332010909531</v>
+        <v>0.09349194636074076</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.3503690677896986</v>
+        <v>0.05037056812186116</v>
       </c>
       <c r="I67" t="n">
-        <v>1.710148040915823</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.347991727694311</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.4854742120177568</v>
+      </c>
+      <c r="N67" t="n">
+        <v>6.361492512660823</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>9969221265.895847</v>
+        <v>10601073033.44056</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1171854760608546</v>
+        <v>0.1267557600783634</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.04504201979451654</v>
+        <v>0.1413152809133823</v>
       </c>
       <c r="I68" t="n">
-        <v>1.661712475486834</v>
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3100748008714284</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.955378086199583</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.494774129388284</v>
+      </c>
+      <c r="N68" t="n">
+        <v>6.940104501566098</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>4535010539.526615</v>
+        <v>9545474504.166016</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3142105509083872</v>
+        <v>0.1289735046133845</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.7259546801231492</v>
+        <v>0.1473786908847893</v>
       </c>
       <c r="I69" t="n">
-        <v>2.026842122566901</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>8.446325125698419</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7476208212062204</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.506091298425989</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>4412604390.225781</v>
+        <v>4653397289.576014</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.3009630169751175</v>
+        <v>0.2268480648245232</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.6801716061652944</v>
+        <v>0.4149719934315367</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1681326554590914</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>8.431078701905866</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.7105385535774374</v>
+      </c>
+      <c r="N70" t="n">
+        <v>5.779692369642882</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>6051605764.257534</v>
+        <v>4923106065.660617</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1804951731078291</v>
+        <v>0.3048706345104099</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.2638384053521138</v>
+        <v>0.6282890908508322</v>
       </c>
       <c r="I71" t="n">
-        <v>1.553663906452937</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>9.243290467933942</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.7974168046575646</v>
+      </c>
+      <c r="N71" t="n">
+        <v>6.70504562521735</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>9224944827.28274</v>
+        <v>5608054187.868349</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1326029751833558</v>
+        <v>0.2484846674653268</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.09832442738269048</v>
+        <v>0.4741274056658734</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1353966868579128</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>8.683934094026265</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7784802132077355</v>
+      </c>
+      <c r="N72" t="n">
+        <v>6.885670170128446</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>3978025791.241543</v>
+        <v>8237782619.449601</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.3351585886988144</v>
+        <v>0.1815624129809742</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.7983504609727823</v>
+        <v>0.2911590525748343</v>
       </c>
       <c r="I73" t="n">
-        <v>1.896438677181163</v>
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.9876017299299367</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.4934540460139992</v>
+      </c>
+      <c r="L73" t="n">
+        <v>3.015651765782853</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.8591773955572207</v>
+      </c>
+      <c r="N73" t="n">
+        <v>14.16789614536156</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>7403949390.525468</v>
+        <v>10691768974.74744</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1602636116770899</v>
+        <v>0.09505661059460065</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1939187449887451</v>
+        <v>0.05464842815834174</v>
       </c>
       <c r="I74" t="n">
-        <v>1.687793164563982</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.99887697376247</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.6479773507414843</v>
+      </c>
+      <c r="N74" t="n">
+        <v>7.960670041067217</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>8153195387.142751</v>
+        <v>9306378489.058624</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1824822599426747</v>
+        <v>0.1114588710548914</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2707057169573285</v>
+        <v>0.09949292131706164</v>
       </c>
       <c r="I75" t="n">
-        <v>2.116261627974264</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>8.537877163474924</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7063947780489838</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5.590018397504751</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>4296573056.391308</v>
+        <v>9092983049.860279</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2706829709947517</v>
+        <v>0.173704510537306</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.5755246891202459</v>
+        <v>0.2696752056849453</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1578376189363189</v>
+        <v>12</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.9868103110709808</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2613536611553087</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2.676174129183234</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.867316145549437</v>
+      </c>
+      <c r="N76" t="n">
+        <v>14.6701487818055</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>8398598085.098983</v>
+        <v>11287363892.63706</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1621797812204687</v>
+        <v>0.1065173428832467</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.200540968593697</v>
+        <v>0.08598256847128004</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2073226008495247</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>8.502622664064054</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7418250172674797</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.333877681285541</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>10303529857.24178</v>
+        <v>8997937769.802767</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1215183958650821</v>
+        <v>0.1333283970940707</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.06001645872403007</v>
+        <v>0.1592851562485048</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1109451610583463</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>8.428470736460138</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7412928614431017</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.397386492401896</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>4517429315.141214</v>
+        <v>8332322929.229275</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2464323561784829</v>
+        <v>0.1675565003730767</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.4917153026148546</v>
+        <v>0.2528662786216911</v>
       </c>
       <c r="I79" t="n">
-        <v>1.583470408255391</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>8.730356809499598</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7789549928480154</v>
+      </c>
+      <c r="N79" t="n">
+        <v>6.84874304746071</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>4304981401.749583</v>
+        <v>11428288258.32702</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.281106482715159</v>
+        <v>0.1288116948684229</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.6115480282866012</v>
+        <v>0.1469362960076617</v>
       </c>
       <c r="I80" t="n">
-        <v>1.721325479091743</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>8.887139370180188</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.7924393849916598</v>
+      </c>
+      <c r="N80" t="n">
+        <v>6.961648329653007</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>5163446334.685389</v>
+        <v>10473454753.43924</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.215093038256138</v>
+        <v>0.09678792278804882</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.3834075739874093</v>
+        <v>0.05938191096107238</v>
       </c>
       <c r="I81" t="n">
-        <v>1.579744595530085</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.368321825841571</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.4883146953064512</v>
+      </c>
+      <c r="N81" t="n">
+        <v>6.397972080287452</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>4357551227.201406</v>
+        <v>7707191623.977365</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2632884297121246</v>
+        <v>0.1685720951790125</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.5499693795711449</v>
+        <v>0.2556429589723708</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1529275762014786</v>
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2941358521968019</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.816333571965656</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.3946188905859337</v>
+      </c>
+      <c r="N82" t="n">
+        <v>5.076044239753019</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>7434640692.120009</v>
+        <v>9340019142.843513</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1539648622445523</v>
+        <v>0.1592944829390407</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1721504587126373</v>
+        <v>0.2302775637799271</v>
       </c>
       <c r="I83" t="n">
-        <v>1.628180160959073</v>
+        <v>12</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.9878465439077244</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4164729001460736</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2.831293368173998</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.8413506574722632</v>
+      </c>
+      <c r="N83" t="n">
+        <v>13.99571978127127</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>9139537478.400667</v>
+        <v>7203871240.663716</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1507515170495369</v>
+        <v>0.2199832419345121</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1610452355475893</v>
+        <v>0.3962032692137851</v>
       </c>
       <c r="I84" t="n">
-        <v>1.959777493511379</v>
+        <v>18</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.9899198245244203</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3792922674248322</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2.350984923123924</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.7679352171889245</v>
+      </c>
+      <c r="N84" t="n">
+        <v>13.00771942065457</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>5376138407.665126</v>
+        <v>12875188284.40105</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.235329761636376</v>
+        <v>0.09765350006751296</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.4533450738910923</v>
+        <v>0.06174843687262256</v>
       </c>
       <c r="I85" t="n">
-        <v>1.799567546323186</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>8.455379475075093</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7528002519948523</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6.600625564821954</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>11264137552.02645</v>
+        <v>11829977645.42348</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1195268127525471</v>
+        <v>0.13041619825857</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.05313360812000829</v>
+        <v>0.1513230780293709</v>
       </c>
       <c r="I86" t="n">
-        <v>1.915067740807697</v>
+        <v>13</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.4110601237850071</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2.731144583681296</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.4206211139169447</v>
+      </c>
+      <c r="N86" t="n">
+        <v>5.681277694657599</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>6853606981.622196</v>
+        <v>6270563198.288169</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1586094523533219</v>
+        <v>0.2481304487011242</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1882020207259785</v>
+        <v>0.4731589561654873</v>
       </c>
       <c r="I87" t="n">
-        <v>1.546212281002324</v>
+        <v>10</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2744080797971826</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2.919711365125337</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.5848715269470373</v>
+      </c>
+      <c r="N87" t="n">
+        <v>8.777719173815408</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>8251452416.210116</v>
+        <v>6656212563.817584</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1425332233255711</v>
+        <v>0.173938312351007</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1326430626400137</v>
+        <v>0.2703144300077386</v>
       </c>
       <c r="I88" t="n">
-        <v>1.672889913662755</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8.613201112070403</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7326543988407939</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.039886864745474</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>10812369043.92636</v>
+        <v>3434469868.871773</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1233096562449409</v>
+        <v>0.4408271080559379</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.06620700006266313</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1891868671105421</v>
+        <v>8</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.3007701503922216</v>
+      </c>
+      <c r="L89" t="n">
+        <v>3.258309133940859</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.6388996634803934</v>
+      </c>
+      <c r="N89" t="n">
+        <v>9.51968413566701</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>6083205925.185582</v>
+        <v>4129216644.205598</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.196350716166749</v>
+        <v>0.2734070859624744</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.3186346794484896</v>
+        <v>0.5422663812966919</v>
       </c>
       <c r="I90" t="n">
-        <v>1.698970602739903</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>8.880844328932049</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7265746905949589</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.650649482967129</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>3876027586.951047</v>
+        <v>15376651324.76468</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3250561462053682</v>
+        <v>0.07733823411113856</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.7634367272799888</v>
+        <v>0.006205616576373016</v>
       </c>
       <c r="I91" t="n">
-        <v>1.792115920872573</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>8.40297121041961</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7391552727594087</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.380134244768564</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>6043218212.596785</v>
+        <v>13224576535.42013</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2379601496107599</v>
+        <v>0.07506847628285601</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.4624356146495223</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>2.045471186193435</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.543936127870882</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.5298176167294523</v>
+      </c>
+      <c r="N92" t="n">
+        <v>7.052416206718163</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>9804759344.212284</v>
+        <v>6482748554.777782</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1285015313245531</v>
+        <v>0.1600059652530448</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.08414996227337876</v>
+        <v>0.2322227873568936</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1559005160458254</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>8.786553375670408</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7063947780489838</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.341342185309268</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>9140547508.933304</v>
+        <v>6314016919.392176</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.130101950549216</v>
+        <v>0.2124048283559406</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.08968096238973225</v>
+        <v>0.3754835570313721</v>
       </c>
       <c r="I94" t="n">
-        <v>1.691518977289289</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>8.846356895605924</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7688393340724958</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6.530429785843992</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>7151440490.140566</v>
+        <v>9667454760.075689</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2135380098744251</v>
+        <v>0.1365584419853715</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.3780334432423859</v>
+        <v>0.1681162394020113</v>
       </c>
       <c r="I95" t="n">
-        <v>2.172148818853866</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>8.832939417449049</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7649027900740539</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.465116384032029</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>3960635922.584282</v>
+        <v>6310779355.618751</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3935067702418524</v>
+        <v>0.2399081531272387</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0.4506788426162144</v>
       </c>
       <c r="I96" t="n">
-        <v>2.216858571557548</v>
+        <v>13</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.987470253346306</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2746433687328095</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2.594727828629098</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.8328770697936518</v>
+      </c>
+      <c r="N96" t="n">
+        <v>14.06281356724394</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>4106946471.482427</v>
+        <v>5395652329.091268</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3820392159709973</v>
+        <v>0.281568586583834</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.9603684815647275</v>
+        <v>0.564580278802802</v>
       </c>
       <c r="I97" t="n">
-        <v>2.231761822458775</v>
+        <v>17</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3893424659828884</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2.418197470712509</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-0.4936055912416537</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-12.29030929554558</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>4501795481.401172</v>
+        <v>12317646656.01604</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2373966397219286</v>
+        <v>0.08995240738285366</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.4604881416295396</v>
+        <v>0.04069331468090055</v>
       </c>
       <c r="I98" t="n">
-        <v>0.08065553980717517</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>8.49222905320371</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7220773716490948</v>
+      </c>
+      <c r="N98" t="n">
+        <v>5.949318379778186</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>6716111920.172616</v>
+        <v>5285269383.650485</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2078784401740757</v>
+        <v>0.2066660279188208</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.358474142661166</v>
+        <v>0.35979342715173</v>
       </c>
       <c r="I99" t="n">
-        <v>0.10891180021905</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>8.559335196167417</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.718660986811008</v>
+      </c>
+      <c r="N99" t="n">
+        <v>5.813884540052742</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>5598632706.459806</v>
+        <v>7758264333.804204</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2081987890820336</v>
+        <v>0.1694881385093555</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.3595812587341823</v>
+        <v>0.2581474612609495</v>
       </c>
       <c r="I100" t="n">
-        <v>1.657986662761528</v>
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2413480853146142</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.403090252305087</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.6106909685684578</v>
+      </c>
+      <c r="N100" t="n">
+        <v>8.810729119064069</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>11220947133.96042</v>
+        <v>8229030558.783861</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1515009463733203</v>
+        <v>0.1922597745503833</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.1636352404745282</v>
+        <v>0.3204061041551393</v>
       </c>
       <c r="I101" t="n">
-        <v>2.418052458724115</v>
+        <v>11</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.9876115485897633</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.3504407228332233</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2.872638442602077</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.8830038974443226</v>
+      </c>
+      <c r="N101" t="n">
+        <v>14.78743950628438</v>
       </c>
     </row>
   </sheetData>
